--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,23 +286,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,8 +298,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +622,7 @@
   <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,282 +633,312 @@
   <sheetData>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="B7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="B8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="B19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -298,12 +298,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,10 +311,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +622,7 @@
   <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B17" sqref="B17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,34 +633,34 @@
   <sheetData>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
@@ -672,7 +672,9 @@
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -684,25 +686,25 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="B7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.85</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -710,25 +712,25 @@
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="B8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -736,7 +738,9 @@
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -748,25 +752,25 @@
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="B10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -786,7 +790,9 @@
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -798,7 +804,9 @@
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -810,7 +818,9 @@
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -822,7 +832,9 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -834,7 +846,9 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -846,13 +860,27 @@
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -870,25 +898,25 @@
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="B19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -908,25 +936,25 @@
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="B21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="10">
         <v>0.9</v>
       </c>
     </row>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Melhorias" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Caixa</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Competência</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Validar no banco cada campo</t>
+  </si>
+  <si>
+    <t>Modificar a estrutura de validação para MD5</t>
   </si>
 </sst>
 </file>
@@ -286,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:H17"/>
     </sheetView>
   </sheetViews>
@@ -975,12 +987,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="160" windowWidth="23760" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Melhorias" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Caixa</t>
   </si>
@@ -94,16 +99,13 @@
   </si>
   <si>
     <t>Validar no banco cada campo</t>
-  </si>
-  <si>
-    <t>Modificar a estrutura de validação para MD5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +124,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,143 +175,145 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -330,9 +350,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,18 +655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="8" width="12.7109375" customWidth="1"/>
+    <col min="2" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" thickBot="1"/>
+    <row r="4" spans="1:8">
       <c r="A4" s="14"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
@@ -666,7 +688,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="15"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -680,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,7 +716,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -714,13 +736,13 @@
         <v>0.9</v>
       </c>
       <c r="G7" s="7">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="H7" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +768,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -760,7 +782,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,11 +808,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -798,7 +822,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,7 +836,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -826,7 +850,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -840,7 +864,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -854,7 +878,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -868,7 +892,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -894,7 +918,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -906,7 +930,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -926,13 +950,13 @@
         <v>0.9</v>
       </c>
       <c r="G19" s="7">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H19" s="8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -944,7 +968,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
@@ -964,7 +988,7 @@
         <v>0.9</v>
       </c>
       <c r="G21" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H21" s="10">
         <v>0.9</v>
@@ -981,7 +1005,12 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -989,16 +1018,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
@@ -1006,17 +1035,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1026,8 +1057,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>